--- a/PLAN_OPERATIVO.xlsx
+++ b/PLAN_OPERATIVO.xlsx
@@ -7,12 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INSTRUCCIONES" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GANTT" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CHECKLIST" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BUDGET" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KPI_TRACKER" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASSUMPTIONS" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DASHBOARD" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INSTRUCCIONES" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GANTT" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CHECKLIST" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BUDGET" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KPI_TRACKER" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ASSUMPTIONS" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,6 +431,175 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DASHBOARD (resumen semanal)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Semana actual</t>
+        </is>
+      </c>
+      <c r="B3">
+        <f>KPI_TRACKER!A2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Páginas nuevas</t>
+        </is>
+      </c>
+      <c r="B5">
+        <f>KPI_TRACKER!B2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Total páginas live</t>
+        </is>
+      </c>
+      <c r="B6">
+        <f>KPI_TRACKER!C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Indexadas</t>
+        </is>
+      </c>
+      <c r="B7">
+        <f>KPI_TRACKER!D2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Tasa de indexación</t>
+        </is>
+      </c>
+      <c r="B8">
+        <f>KPI_TRACKER!E2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sesiones</t>
+        </is>
+      </c>
+      <c r="B10">
+        <f>KPI_TRACKER!F2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pageviews</t>
+        </is>
+      </c>
+      <c r="B11">
+        <f>KPI_TRACKER!G2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pages/Session</t>
+        </is>
+      </c>
+      <c r="B12">
+        <f>KPI_TRACKER!H2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>RPM (Ads)</t>
+        </is>
+      </c>
+      <c r="B14">
+        <f>KPI_TRACKER!I2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Revenue (Ads)</t>
+        </is>
+      </c>
+      <c r="B15">
+        <f>KPI_TRACKER!J2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>eRPM (Aff)</t>
+        </is>
+      </c>
+      <c r="B16">
+        <f>KPI_TRACKER!K2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Revenue (Aff)</t>
+        </is>
+      </c>
+      <c r="B17">
+        <f>KPI_TRACKER!L2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Revenue Total</t>
+        </is>
+      </c>
+      <c r="B18">
+        <f>KPI_TRACKER!M2</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -515,7 +685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -580,9 +750,6 @@
           <t>Descargar RedCalculadoras_V016.zip y descomprimir</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2">
         <f>IF(E2&lt;&gt;"",E2-D2+1,"")</f>
         <v/>
@@ -592,7 +759,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -603,9 +769,6 @@
           <t>Crear repositorio GitHub público (sin README/.gitignore/licencia)</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3">
         <f>IF(E3&lt;&gt;"",E3-D3+1,"")</f>
         <v/>
@@ -615,7 +778,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -626,9 +788,6 @@
           <t>Subir contenido del ZIP (no el ZIP) con 'Upload files'</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
       <c r="F4">
         <f>IF(E4&lt;&gt;"",E4-D4+1,"")</f>
         <v/>
@@ -638,7 +797,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -649,9 +807,6 @@
           <t>Habilitar GitHub Actions en el repositorio</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5">
         <f>IF(E5&lt;&gt;"",E5-D5+1,"")</f>
         <v/>
@@ -661,7 +816,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,9 +826,6 @@
           <t>Crear cuenta Vercel y conectar con GitHub (repo seleccionado)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
       <c r="F6">
         <f>IF(E6&lt;&gt;"",E6-D6+1,"")</f>
         <v/>
@@ -684,7 +835,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -695,9 +845,6 @@
           <t>Importar proyecto en Vercel (Framework: Astro, Node 20, build/output)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
       <c r="F7">
         <f>IF(E7&lt;&gt;"",E7-D7+1,"")</f>
         <v/>
@@ -707,7 +854,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -718,9 +864,6 @@
           <t>Configurar variables Vercel: SITE_URL (temporal .vercel.app)</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
       <c r="F8">
         <f>IF(E8&lt;&gt;"",E8-D8+1,"")</f>
         <v/>
@@ -730,7 +873,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -741,9 +883,6 @@
           <t>Primer Deploy y verificación de páginas de ejemplo</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
       <c r="F9">
         <f>IF(E9&lt;&gt;"",E9-D9+1,"")</f>
         <v/>
@@ -753,7 +892,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -764,9 +902,6 @@
           <t>Comprar dominio económico (.com)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10">
         <f>IF(E10&lt;&gt;"",E10-D10+1,"")</f>
         <v/>
@@ -776,7 +911,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -787,9 +921,6 @@
           <t>Añadir dominio en Vercel y copiar registros DNS</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
       <c r="F11">
         <f>IF(E11&lt;&gt;"",E11-D11+1,"")</f>
         <v/>
@@ -799,7 +930,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -810,9 +940,6 @@
           <t>Configurar DNS en el registrador (A 76.76.21.21, CNAME www)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
       <c r="F12">
         <f>IF(E12&lt;&gt;"",E12-D12+1,"")</f>
         <v/>
@@ -822,7 +949,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -833,9 +959,6 @@
           <t>Verificar propagación y SSL (candado) en Vercel</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
       <c r="F13">
         <f>IF(E13&lt;&gt;"",E13-D13+1,"")</f>
         <v/>
@@ -845,7 +968,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -856,9 +978,6 @@
           <t>Actualizar SITE_URL en Vercel al dominio y redeploy</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14">
         <f>IF(E14&lt;&gt;"",E14-D14+1,"")</f>
         <v/>
@@ -868,7 +987,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -879,9 +997,6 @@
           <t>Crear Deploy Hook (Production) en Vercel y copiar URL</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15">
         <f>IF(E15&lt;&gt;"",E15-D15+1,"")</f>
         <v/>
@@ -891,7 +1006,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -902,9 +1016,6 @@
           <t>Agregar Secrets en GitHub: VERCEL_DEPLOY_HOOK_URL, SITE_URL, MAX_PER_DAY=50</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
       <c r="F16">
         <f>IF(E16&lt;&gt;"",E16-D16+1,"")</f>
         <v/>
@@ -914,7 +1025,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -925,9 +1035,6 @@
           <t>Ejecutar workflow manual 'Nightly programmatic publish'</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
       <c r="F17">
         <f>IF(E17&lt;&gt;"",E17-D17+1,"")</f>
         <v/>
@@ -937,7 +1044,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -948,9 +1054,6 @@
           <t>Verificar logs: generación MDX, build OK, deploy hook 200, ping sitemaps OK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
       <c r="F18">
         <f>IF(E18&lt;&gt;"",E18-D18+1,"")</f>
         <v/>
@@ -960,7 +1063,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -971,9 +1073,6 @@
           <t>Confirmar cron diario 01:30 UTC (ejecución automática)</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
       <c r="F19">
         <f>IF(E19&lt;&gt;"",E19-D19+1,"")</f>
         <v/>
@@ -983,7 +1082,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -994,9 +1092,6 @@
           <t>Crear Cloudflare Web Analytics y obtener token</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
       <c r="F20">
         <f>IF(E20&lt;&gt;"",E20-D20+1,"")</f>
         <v/>
@@ -1006,7 +1101,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1017,9 +1111,6 @@
           <t>Añadir VITE_CF_ANALYTICS_TOKEN en Vercel y redeploy</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
       <c r="F21">
         <f>IF(E21&lt;&gt;"",E21-D21+1,"")</f>
         <v/>
@@ -1029,7 +1120,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1040,9 +1130,6 @@
           <t>Crear propiedad en Google Search Console y verificar dominio</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
       <c r="F22">
         <f>IF(E22&lt;&gt;"",E22-D22+1,"")</f>
         <v/>
@@ -1052,7 +1139,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1063,9 +1149,6 @@
           <t>Subir sitemap a Search Console (sitemap-index.xml)</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
       <c r="F23">
         <f>IF(E23&lt;&gt;"",E23-D23+1,"")</f>
         <v/>
@@ -1075,7 +1158,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1086,9 +1168,6 @@
           <t>Revisar páginas Privacy / Disclaimer (presentes en /privacy y /disclaimer)</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
       <c r="F24">
         <f>IF(E24&lt;&gt;"",E24-D24+1,"")</f>
         <v/>
@@ -1098,7 +1177,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1109,9 +1187,6 @@
           <t>Solicitar Google AdSense (tras ≥100–300 páginas indexadas)</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
       <c r="F25">
         <f>IF(E25&lt;&gt;"",E25-D25+1,"")</f>
         <v/>
@@ -1121,7 +1196,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1132,9 +1206,6 @@
           <t>Añadir VITE_ADSENSE_CLIENT en Vercel tras aprobación</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
       <c r="F26">
         <f>IF(E26&lt;&gt;"",E26-D26+1,"")</f>
         <v/>
@@ -1144,7 +1215,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1155,9 +1225,6 @@
           <t>Actualizar /public/ads.txt con pub-id y redeploy</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
       <c r="F27">
         <f>IF(E27&lt;&gt;"",E27-D27+1,"")</f>
         <v/>
@@ -1167,7 +1234,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1178,9 +1244,6 @@
           <t>Añadir 150–300 filas nuevas a data/calculators.json (semana 1)</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
       <c r="F28">
         <f>IF(E28&lt;&gt;"",E28-D28+1,"")</f>
         <v/>
@@ -1190,7 +1253,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1201,9 +1263,6 @@
           <t>QA de 3 calculadoras nuevas (semana 1)</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
       <c r="F29">
         <f>IF(E29&lt;&gt;"",E29-D29+1,"")</f>
         <v/>
@@ -1213,7 +1272,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1224,9 +1282,6 @@
           <t>Revisar Search Console: cobertura y errores (semana 1)</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
       <c r="F30">
         <f>IF(E30&lt;&gt;"",E30-D30+1,"")</f>
         <v/>
@@ -1236,7 +1291,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1247,9 +1301,6 @@
           <t>Registrar métricas en PLAN_OPERATIVO.xlsx (semana 1)</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
       <c r="F31">
         <f>IF(E31&lt;&gt;"",E31-D31+1,"")</f>
         <v/>
@@ -1259,7 +1310,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1270,9 +1320,6 @@
           <t>Mejorar FAQs/related en top clúster (semana 1)</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
       <c r="F32">
         <f>IF(E32&lt;&gt;"",E32-D32+1,"")</f>
         <v/>
@@ -1282,7 +1329,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1293,9 +1339,6 @@
           <t>Mantener MAX_PER_DAY=40–60 (semanas 1–8)</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
       <c r="F33">
         <f>IF(E33&lt;&gt;"",E33-D33+1,"")</f>
         <v/>
@@ -1305,7 +1348,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1316,9 +1358,6 @@
           <t>Si indexación &gt;60–70% sostenida, subir MAX_PER_DAY a 80–100</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
       <c r="F34">
         <f>IF(E34&lt;&gt;"",E34-D34+1,"")</f>
         <v/>
@@ -1328,7 +1367,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1339,9 +1377,6 @@
           <t>Duplicar clúster con mejor RPM/CTR (recurrente)</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
       <c r="F35">
         <f>IF(E35&lt;&gt;"",E35-D35+1,"")</f>
         <v/>
@@ -1351,7 +1386,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1362,9 +1396,6 @@
           <t>Backups semanales del repo (tag o release)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
       <c r="F36">
         <f>IF(E36&lt;&gt;"",E36-D36+1,"")</f>
         <v/>
@@ -1374,7 +1405,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1385,9 +1415,6 @@
           <t>Revisión de accesibilidad básica (labels, focus, aria-live)</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
       <c r="F37">
         <f>IF(E37&lt;&gt;"",E37-D37+1,"")</f>
         <v/>
@@ -1397,7 +1424,6 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1408,9 +1434,6 @@
           <t>Optimización Core Web Vitals (lazy-load, imágenes, JS mínimo)</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
       <c r="F38">
         <f>IF(E38&lt;&gt;"",E38-D38+1,"")</f>
         <v/>
@@ -1420,14 +1443,13 @@
           <t>Not started</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1512,10 +1534,6 @@
       <c r="E2" t="n">
         <v>200</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1541,10 +1559,6 @@
       <c r="E3" t="n">
         <v>3</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1567,11 +1581,6 @@
           <t>Search Console: cobertura + enlaces internos</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1594,11 +1603,6 @@
           <t>Cloudflare sesiones/PV; si hay Ads, RPM</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1621,18 +1625,13 @@
           <t>Expandir mejor clúster por CTR/RPM</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1692,12 +1691,10 @@
       <c r="C2" t="n">
         <v>12</v>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2">
         <f>D2-C2</f>
         <v/>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1713,12 +1710,10 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3">
         <f>D3-C3</f>
         <v/>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1734,7 +1729,6 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4">
         <f>D4-C4</f>
         <v/>
@@ -1759,19 +1753,17 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5">
         <f>D5-C5</f>
         <v/>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1858,25 +1850,18 @@
           <t>2025-W34</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
       <c r="E2">
         <f>IF(C2&lt;&gt;"",IF(C2&gt;0,D2/C2,0),"")</f>
         <v/>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2">
         <f>IF(F2&lt;&gt;"",IF(F2&gt;0,G2/F2,0),"")</f>
         <v/>
       </c>
-      <c r="I2" t="inlineStr"/>
       <c r="J2">
         <f>IF(G2&lt;&gt;""*I2&lt;&gt;"",G2/1000*I2,"")</f>
         <v/>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2">
         <f>IF(G2&lt;&gt;""*K2&lt;&gt;"",G2/1000*K2,"")</f>
         <v/>
@@ -1891,7 +1876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
